--- a/rapport/rapport_api.xlsx
+++ b/rapport/rapport_api.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.677576781577338</v>
+        <v>3.677627633308154</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>57.9856687770389</v>
+        <v>57.96693520079926</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>3.150988480125088</v>
+        <v>3.151019696039055</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7.238477791174596</v>
+        <v>7.238308117577713</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         <v>71</v>
       </c>
       <c r="C4" t="n">
-        <v>0.264617302692309</v>
+        <v>0.2646268688594923</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.740059796425328</v>
+        <v>5.740000133751053</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>71</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2619709987599403</v>
+        <v>0.2619810684096068</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.498332821355016</v>
+        <v>5.498352708913107</v>
       </c>
     </row>
     <row r="6">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7.160235858041793</v>
+        <v>7.160682698745746</v>
       </c>
     </row>
     <row r="7">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7.160264556543343</v>
+        <v>7.160431964469049</v>
       </c>
     </row>
     <row r="8">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7.17010562516246</v>
+        <v>7.160410566463508</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>7.170182406241167</v>
+        <v>7.170478957423848</v>
       </c>
     </row>
     <row r="10">
@@ -625,7 +625,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>2.007661072909646</v>
+        <v>2.007575984369963</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7.170433140517865</v>
+        <v>7.16064242014708</v>
       </c>
     </row>
     <row r="11">
@@ -646,7 +646,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>2.079797022225895</v>
+        <v>2.079712437168695</v>
       </c>
     </row>
     <row r="13">
@@ -683,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>3.151041094044596</v>
+        <v>3.150995277138613</v>
       </c>
     </row>
     <row r="16">
@@ -696,7 +696,7 @@
         <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>2.272232558695972</v>
+        <v>2.272233565660938</v>
       </c>
     </row>
     <row r="17">
@@ -709,7 +709,7 @@
         <v>65</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3167861436847598</v>
+        <v>0.3167712909515016</v>
       </c>
     </row>
     <row r="19">
@@ -746,7 +746,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>3.151019696039055</v>
+        <v>3.151041094044596</v>
       </c>
     </row>
     <row r="22">
@@ -772,7 +772,7 @@
         <v>63</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3474666040300392</v>
+        <v>0.3474650935825892</v>
       </c>
     </row>
     <row r="25">
@@ -809,7 +809,7 @@
         <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>3.151019696039055</v>
+        <v>3.150995277138613</v>
       </c>
     </row>
     <row r="28">
@@ -822,7 +822,7 @@
         <v>14</v>
       </c>
       <c r="C28" t="n">
-        <v>1.682378410577495</v>
+        <v>1.682770875173248</v>
       </c>
     </row>
     <row r="29">
@@ -835,7 +835,7 @@
         <v>9</v>
       </c>
       <c r="C29" t="n">
-        <v>2.326837751425244</v>
+        <v>2.326916546433885</v>
       </c>
     </row>
     <row r="31">
@@ -872,7 +872,7 @@
         <v>6</v>
       </c>
       <c r="C33" t="n">
-        <v>3.150995277138613</v>
+        <v>3.151041094044596</v>
       </c>
     </row>
     <row r="34">
@@ -885,7 +885,7 @@
         <v>14</v>
       </c>
       <c r="C34" t="n">
-        <v>1.682397542911861</v>
+        <v>1.682474323990569</v>
       </c>
     </row>
     <row r="35">
@@ -898,7 +898,7 @@
         <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>2.326871736492869</v>
+        <v>2.326916546433885</v>
       </c>
     </row>
     <row r="37">
@@ -935,7 +935,7 @@
         <v>6</v>
       </c>
       <c r="C39" t="n">
-        <v>3.151041094044596</v>
+        <v>3.151019696039055</v>
       </c>
     </row>
     <row r="40">
@@ -948,7 +948,7 @@
         <v>14</v>
       </c>
       <c r="C40" t="n">
-        <v>1.682397542911861</v>
+        <v>1.682474323990569</v>
       </c>
     </row>
     <row r="41">
@@ -961,7 +961,7 @@
         <v>9</v>
       </c>
       <c r="C41" t="n">
-        <v>2.336666988206003</v>
+        <v>2.326916546433885</v>
       </c>
     </row>
     <row r="43">
@@ -1011,7 +1011,7 @@
         <v>14</v>
       </c>
       <c r="C46" t="n">
-        <v>1.682474323990569</v>
+        <v>1.682770875173248</v>
       </c>
     </row>
     <row r="47">
@@ -1061,7 +1061,7 @@
         <v>6</v>
       </c>
       <c r="C51" t="n">
-        <v>3.150995277138613</v>
+        <v>3.151019696039055</v>
       </c>
     </row>
     <row r="52">
@@ -1074,7 +1074,7 @@
         <v>14</v>
       </c>
       <c r="C52" t="n">
-        <v>1.682770875173248</v>
+        <v>1.682474323990569</v>
       </c>
     </row>
     <row r="53">
@@ -1087,7 +1087,7 @@
         <v>9</v>
       </c>
       <c r="C53" t="n">
-        <v>2.336666988206003</v>
+        <v>2.327148400117457</v>
       </c>
     </row>
   </sheetData>

--- a/rapport/rapport_api.xlsx
+++ b/rapport/rapport_api.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Cas de test</t>
+          <t>Cas de tests</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -439,7 +439,7 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Campagne de test</t>
+          <t>Campagne de tests</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -451,12 +451,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proprete du site (en %)</t>
+          <t>Propreté (en %)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.677627633308154</v>
+        <v>3.677675212402828</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>57.96693520079926</v>
+        <v>40.36324489651182</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>3.151019696039055</v>
+        <v>3.151111833333503</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7.238308117577713</v>
+        <v>7.238438267799653</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         <v>71</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2646268688594923</v>
+        <v>3.415717304187454</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.740000133751053</v>
+        <v>5.740081697913353</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>71</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2619810684096068</v>
+        <v>3.677675212402828</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.498352708913107</v>
+        <v>5.498016130873002</v>
       </c>
     </row>
     <row r="6">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7.160682698745746</v>
+        <v>7.171942832744122</v>
       </c>
     </row>
     <row r="7">
@@ -566,18 +566,18 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7.160431964469049</v>
+        <v>2.797039287380967</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Proprete du site (en %)</t>
+          <t>Propreté (en %)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7.160410566463508</v>
+        <v>0.6576785251887516</v>
       </c>
     </row>
     <row r="9">
@@ -604,7 +604,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>3.151019696039055</v>
+        <v>3.151032283101137</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>7.170478957423848</v>
+        <v>5.473289099151827</v>
       </c>
     </row>
     <row r="10">
@@ -625,7 +625,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>2.007575984369963</v>
+        <v>5.158588128171768</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7.16064242014708</v>
+        <v>2.109083843057324</v>
       </c>
     </row>
     <row r="11">
@@ -646,7 +646,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>2.079712437168695</v>
+        <v>7.238438267799653</v>
       </c>
     </row>
     <row r="13">
@@ -659,12 +659,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Proprete du site (en %)</t>
+          <t>Propreté (en %)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -683,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>3.150995277138613</v>
+        <v>3.151032283101137</v>
       </c>
     </row>
     <row r="16">
@@ -696,7 +696,7 @@
         <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>2.272233565660938</v>
+        <v>5.423328532331251</v>
       </c>
     </row>
     <row r="17">
@@ -709,7 +709,7 @@
         <v>65</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3167712909515016</v>
+        <v>5.740081697913353</v>
       </c>
     </row>
     <row r="19">
@@ -722,12 +722,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Proprete du site (en %)</t>
+          <t>Propreté (en %)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -746,7 +746,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>3.151041094044596</v>
+        <v>3.151111833333503</v>
       </c>
     </row>
     <row r="22">
@@ -759,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>1.999846521285922</v>
+        <v>5.150418369656056</v>
       </c>
     </row>
     <row r="23">
@@ -772,7 +772,7 @@
         <v>63</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3474650935825892</v>
+        <v>5.498016130873002</v>
       </c>
     </row>
     <row r="25">
@@ -785,12 +785,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Proprete du site (en %)</t>
+          <t>Propreté (en %)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -809,7 +809,7 @@
         <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>3.150995277138613</v>
+        <v>3.151614812334348</v>
       </c>
     </row>
     <row r="28">
@@ -822,7 +822,7 @@
         <v>14</v>
       </c>
       <c r="C28" t="n">
-        <v>1.682770875173248</v>
+        <v>4.834000523407851</v>
       </c>
     </row>
     <row r="29">
@@ -835,7 +835,7 @@
         <v>9</v>
       </c>
       <c r="C29" t="n">
-        <v>2.326916546433885</v>
+        <v>7.171942832744122</v>
       </c>
     </row>
     <row r="31">
@@ -848,12 +848,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Proprete du site (en %)</t>
+          <t>Propreté (en %)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -865,229 +865,307 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.ausy.fr/fr/</t>
+          <t>https://www.laposte.fr/</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C33" t="n">
-        <v>3.151041094044596</v>
+        <v>0.6089555183121935</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.ausy.fr/fr/a-propos-d-ausy/</t>
+          <t>https://www.laposte.fr/tarifs-postaux</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C34" t="n">
-        <v>1.682474323990569</v>
+        <v>1.202623294500634</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.ausy.fr/fr/nous-contacter/</t>
+          <t>https://www.laposte.fr/tarifs-postaux-courrier-lettres-timbres</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C35" t="n">
-        <v>2.326916546433885</v>
+        <v>1.656620246730466</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.laposte.fr/boutique/c/enveloppesblanches</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>44</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.221867443700042</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Cas de test 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Proprete du site (en %)</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Consommation de CO2 (en g)</t>
-        </is>
+          <t>https://www.laposte.fr/boutique/paquet-de-100-enveloppes-blanches-dont-20-gratuites-dl-110x220-75-gm-gpv/p/mp-500002277</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>43</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2.797039287380967</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.ausy.fr/fr/</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>6</v>
-      </c>
-      <c r="C39" t="n">
-        <v>3.151019696039055</v>
+          <t>Cas de test 7</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.ausy.fr/fr/a-propos-d-ausy/</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>14</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1.682474323990569</v>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Propreté (en %)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Consommation de CO2 (en g)</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.ausy.fr/fr/nous-contacter/</t>
+          <t>https://greenpixie.com/website-carbon-calculator</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C41" t="n">
-        <v>2.326916546433885</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Cas de test 8</t>
-        </is>
+        <v>0.3755506052087993</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://greenpixie.com/products</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>69</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.6576785251887516</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Proprete du site (en %)</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Consommation de CO2 (en g)</t>
+          <t>Cas de test 8</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.ausy.fr/fr/</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>6</v>
-      </c>
-      <c r="C45" t="n">
-        <v>3.151041094044596</v>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Propreté (en %)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Consommation de CO2 (en g)</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.ausy.fr/fr/a-propos-d-ausy/</t>
+          <t>https://www.amazon.fr/</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C46" t="n">
-        <v>1.682770875173248</v>
+        <v>0.9234578654525802</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.ausy.fr/fr/nous-contacter/</t>
+          <t>https://www.amazon.fr/gp/bestsellers/?ref_=nav_cs_bestsellers</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="C47" t="n">
-        <v>2.336666988206003</v>
+        <v>1.307985059856624</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/stores/page/D6B8B829-11F7-400C-95DA-AE3951490E78?ingress=3&amp;field-lbr_brands_browse-bin=AmazonBasics&amp;ref_=nav_cs_amazonbasics</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.777441189995781</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Cas de test 9</t>
-        </is>
+          <t>https://www.amazon.fr/music/unlimited?ref_=nav_cs_music</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>16</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3.423250912585482</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Proprete du site (en %)</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Consommation de CO2 (en g)</t>
-        </is>
+          <t>https://www.amazon.fr/gp/help/customer/display.html?nodeId=508510&amp;ref_=nav_cs_help</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>81</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3.63828374987226</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.ausy.fr/fr/</t>
+          <t>https://www.amazon.fr/gp/movers-and-shakers/?ref_=nav_em_ms_0_1_1_4</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C51" t="n">
-        <v>3.151019696039055</v>
+        <v>4.014773349912464</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.ausy.fr/fr/a-propos-d-ausy/</t>
+          <t>https://www.amazon.fr/gp/browse.html?node=514848031&amp;ref_=nav_em__ord_bur_ecr_0_2_14_4</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>14</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>1.682474323990569</v>
+        <v>4.51020237917779</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.ausy.fr/fr/nous-contacter/</t>
+          <t>https://www.amazon.fr/gp/browse.html?node=1716189031&amp;ref_=nav_em_hilg_flyout_shopall_ptht_0_2_17_4</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C53" t="n">
-        <v>2.327148400117457</v>
+        <v>5.473289099151827</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Cas de test 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Propreté (en %)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Consommation de CO2 (en g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://www.randstad.fr/</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>30</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.8506021879264154</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://www.randstad.fr/jeux-paris-2024/</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>23</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.906984463802259</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://www.randstad.fr/recruteurs/choisir-randstad/</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>79</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.109083843057324</v>
       </c>
     </row>
   </sheetData>
